--- a/tests/_data/resultCompiled.xlsx
+++ b/tests/_data/resultCompiled.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\current\image-parsing\__tests__\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\current\image-parsing\tests\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>eab21561-d52c-485f-8b94-f84e8919bc9e</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>D:/Current/image-parsing/__tests__/_data/images-barcode//10025.tif</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -662,15 +662,15 @@
   <dimension ref="A1:BW4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="63.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -897,7 +897,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>21</v>
       </c>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>76</v>
       </c>
       <c r="AK2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s">
         <v>76</v>
@@ -1121,12 +1121,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>39</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -1231,7 +1231,7 @@
         <v>76</v>
       </c>
       <c r="AK3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AL3" t="s">
         <v>76</v>
@@ -1345,15 +1345,15 @@
         <v>76</v>
       </c>
       <c r="BW3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1374,53 +1374,53 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V4" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4" t="s">
+        <v>76</v>
+      </c>
+      <c r="X4" t="s">
         <v>87</v>
       </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>76</v>
-      </c>
-      <c r="R4" t="s">
-        <v>78</v>
-      </c>
-      <c r="S4" t="s">
-        <v>77</v>
-      </c>
-      <c r="T4" t="s">
-        <v>76</v>
-      </c>
-      <c r="U4" t="s">
-        <v>77</v>
-      </c>
-      <c r="V4" t="s">
-        <v>78</v>
-      </c>
-      <c r="W4" t="s">
-        <v>76</v>
-      </c>
-      <c r="X4" t="s">
-        <v>80</v>
-      </c>
       <c r="Y4" t="s">
         <v>79</v>
       </c>
@@ -1455,13 +1455,13 @@
         <v>78</v>
       </c>
       <c r="AJ4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AK4" t="s">
         <v>78</v>
       </c>
       <c r="AL4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AM4" t="s">
         <v>78</v>
@@ -1500,7 +1500,7 @@
         <v>77</v>
       </c>
       <c r="AY4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AZ4" t="s">
         <v>78</v>
@@ -1515,7 +1515,7 @@
         <v>78</v>
       </c>
       <c r="BD4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="BE4" t="s">
         <v>78</v>
@@ -1530,7 +1530,7 @@
         <v>78</v>
       </c>
       <c r="BI4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="BJ4" t="s">
         <v>79</v>
@@ -1554,7 +1554,7 @@
         <v>76</v>
       </c>
       <c r="BQ4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="BR4" t="s">
         <v>79</v>
@@ -1572,13 +1572,13 @@
         <v>78</v>
       </c>
       <c r="BW4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:BW1 A4:H4 A2:H2 J2:BW2 A3:H3 J3:BW3 J4:BW4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:BW1 A4:H4 A2:H2 J2:AJ2 A3:H3 J3:AJ3 J4:W4 Y4:AI4 AK4 AL2:BW2 AL3:BW3 AM4:AX4 AZ4:BC4 BE4:BH4 BJ4:BP4 BR4:BW4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/tests/_data/resultCompiled.xlsx
+++ b/tests/_data/resultCompiled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="89">
   <si>
     <t>CORRECT COUNT</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -661,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BQ4" sqref="BQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1455,7 +1458,7 @@
         <v>78</v>
       </c>
       <c r="AJ4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK4" t="s">
         <v>78</v>
@@ -1554,7 +1557,7 @@
         <v>76</v>
       </c>
       <c r="BQ4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BR4" t="s">
         <v>79</v>

--- a/tests/_data/resultCompiled.xlsx
+++ b/tests/_data/resultCompiled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>UNATTEMPTED COUNT</t>
   </si>
   <si>
-    <t>IMAGE FILE</t>
-  </si>
-  <si>
     <t>IS ROLL NO EXTRACTED</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>FILE PATH</t>
   </si>
 </sst>
 </file>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BQ4" sqref="BQ4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -699,205 +699,205 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>73</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>39</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -944,184 +944,184 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AK2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AM2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AQ2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AR2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AU2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AV2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AW2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AX2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AY2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AZ2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BA2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BB2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BC2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BD2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BE2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BF2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BG2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BH2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BI2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BJ2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BK2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BL2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BM2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BN2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BO2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BP2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BQ2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BR2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BS2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BT2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BU2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BV2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3">
         <v>39</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -1168,187 +1168,187 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AM3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AQ3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AR3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AU3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AV3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AW3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AX3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AY3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AZ3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BA3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BB3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BC3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BD3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BE3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BF3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BG3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BH3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BI3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BJ3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BK3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BL3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BM3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BN3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BO3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BP3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BQ3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BR3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BS3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BT3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BU3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BV3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BW3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.25">
@@ -1356,7 +1356,7 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1377,211 +1377,211 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V4" t="s">
+        <v>77</v>
+      </c>
+      <c r="W4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X4" t="s">
         <v>86</v>
       </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>76</v>
-      </c>
-      <c r="R4" t="s">
-        <v>78</v>
-      </c>
-      <c r="S4" t="s">
-        <v>77</v>
-      </c>
-      <c r="T4" t="s">
-        <v>76</v>
-      </c>
-      <c r="U4" t="s">
-        <v>77</v>
-      </c>
-      <c r="V4" t="s">
-        <v>78</v>
-      </c>
-      <c r="W4" t="s">
-        <v>76</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>87</v>
       </c>
-      <c r="Y4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>88</v>
-      </c>
       <c r="AK4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ4" t="s">
         <v>87</v>
       </c>
-      <c r="AM4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>79</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>88</v>
-      </c>
       <c r="BR4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BS4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BT4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BU4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BV4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BW4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:BW1 A4:H4 A2:H2 J2:AJ2 A3:H3 J3:AJ3 J4:W4 Y4:AI4 AK4 AL2:BW2 AL3:BW3 AM4:AX4 AZ4:BC4 BE4:BH4 BJ4:BP4 BR4:BW4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:H1 A4:H4 A2:H2 J2:AJ2 A3:H3 J3:AJ3 J4:W4 Y4:AI4 AK4 AL2:BW2 AL3:BW3 AM4:AX4 AZ4:BC4 BE4:BH4 BJ4:BP4 BR4:BW4 J1:BW1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>